--- a/misBitacoras/Bitacora-Zanuttini-Mariela-Enero-2025.xlsx
+++ b/misBitacoras/Bitacora-Zanuttini-Mariela-Enero-2025.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Bitacora" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$F$8:$F$110</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$F$10:$F$112</definedName>
     <definedName name="g">Bitacora!$J:$J</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1" fullPrecision="1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Día</t>
   </si>
@@ -354,6 +354,23 @@
   </si>
   <si>
     <t>htyheth</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>DE-APLIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pruebagggewgewwwwwwwwwwwwwwwwwwwwwgeeeeeeeeeeeweeeeeeeeeeeeeeg
+ge</t>
+  </si>
+  <si>
+    <t>Cuentas Vista (CC y CA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pruebaageg
+gegew</t>
   </si>
   <si>
     <t>Marcio Palazzo</t>
@@ -904,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1087,6 +1104,24 @@
     </xf>
     <xf numFmtId="46" applyNumberFormat="1" fontId="0" fillId="0" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1414,7 +1449,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L577"/>
+  <dimension ref="A1:L579"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
@@ -1534,40 +1569,40 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="59">
+      <c r="A4" s="65">
         <v>8</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="65">
         <v>2025</v>
       </c>
-      <c r="D4" s="60">
+      <c r="D4" s="66">
         <v>0.041666666666666664</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>12</v>
+      <c r="F4" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="65" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="59" t="s">
         <v>10</v>
@@ -1599,7 +1634,7 @@
     </row>
     <row r="6">
       <c r="A6" s="59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="59" t="s">
         <v>10</v>
@@ -1630,61 +1665,100 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="62">
+      <c r="A7" s="59">
+        <v>10</v>
+      </c>
+      <c r="B7" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="59">
+        <v>2025</v>
+      </c>
+      <c r="D7" s="60">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="68">
+        <v>22</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="68">
+        <v>2025</v>
+      </c>
+      <c r="D8" s="69">
+        <v>0.041666666666666664</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="62">
         <v>23</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B9" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="62">
+      <c r="C9" s="62">
         <v>2025</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D9" s="63">
         <v>0.041666666666666664</v>
       </c>
-      <c r="E7" s="62" t="s">
+      <c r="E9" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="62" t="s">
+      <c r="I9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J9" s="62" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="18"/>
@@ -1697,6 +1771,7 @@
       <c r="H10" s="44"/>
       <c r="I10" s="10"/>
       <c r="J10" s="1"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="18"/>
@@ -1709,10 +1784,6 @@
       <c r="H11" s="44"/>
       <c r="I11" s="10"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="21" t="str">
-        <f ref="K11:K27" t="array">$J$170:$J$186</f>
-        <v>Raul Daszkal</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="18"/>
@@ -1725,9 +1796,6 @@
       <c r="H12" s="44"/>
       <c r="I12" s="10"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="21" t="str">
-        <v>Santiago Lanzi</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="18"/>
@@ -1739,9 +1807,10 @@
       <c r="G13" s="22"/>
       <c r="H13" s="44"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="21" t="str">
-        <v>Laura Ozcoidi</v>
+        <f ref="K13:K29" t="array">$J$172:$J$188</f>
+        <v>Raul Daszkal</v>
       </c>
     </row>
     <row r="14">
@@ -1756,10 +1825,10 @@
       <c r="I14" s="10"/>
       <c r="J14" s="1"/>
       <c r="K14" s="21" t="str">
-        <v>Gabriela Piro</v>
-      </c>
-    </row>
-    <row r="15" ht="14.45" customHeight="1">
+        <v>Santiago Lanzi</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1769,9 +1838,9 @@
       <c r="G15" s="22"/>
       <c r="H15" s="44"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="30"/>
       <c r="K15" s="21" t="str">
-        <v>Fernando Sottano</v>
+        <v>Laura Ozcoidi</v>
       </c>
     </row>
     <row r="16">
@@ -1786,10 +1855,10 @@
       <c r="I16" s="10"/>
       <c r="J16" s="1"/>
       <c r="K16" s="21" t="str">
-        <v>Bernardo Petriz</v>
-      </c>
-    </row>
-    <row r="17" ht="14.1" customHeight="1">
+        <v>Gabriela Piro</v>
+      </c>
+    </row>
+    <row r="17" ht="14.45" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -1801,7 +1870,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="1"/>
       <c r="K17" s="21" t="str">
-        <v>Corina Fitzpatrick</v>
+        <v>Fernando Sottano</v>
       </c>
     </row>
     <row r="18">
@@ -1816,10 +1885,10 @@
       <c r="I18" s="10"/>
       <c r="J18" s="1"/>
       <c r="K18" s="21" t="str">
-        <v>Roberto Lo Bue</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>Bernardo Petriz</v>
+      </c>
+    </row>
+    <row r="19" ht="14.1" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
@@ -1831,7 +1900,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="1"/>
       <c r="K19" s="21" t="str">
-        <v>Ricardo Cavallin</v>
+        <v>Corina Fitzpatrick</v>
       </c>
     </row>
     <row r="20">
@@ -1846,7 +1915,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="1"/>
       <c r="K20" s="21" t="str">
-        <v>Ariel Cvjetkovic</v>
+        <v>Roberto Lo Bue</v>
       </c>
     </row>
     <row r="21">
@@ -1859,9 +1928,9 @@
       <c r="G21" s="22"/>
       <c r="H21" s="44"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="30"/>
+      <c r="J21" s="1"/>
       <c r="K21" s="21" t="str">
-        <v>Carlos Cernigoi</v>
+        <v>Ricardo Cavallin</v>
       </c>
     </row>
     <row r="22">
@@ -1874,9 +1943,9 @@
       <c r="G22" s="22"/>
       <c r="H22" s="44"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="30"/>
+      <c r="J22" s="1"/>
       <c r="K22" s="21" t="str">
-        <v>Marcia Garcia</v>
+        <v>Ariel Cvjetkovic</v>
       </c>
     </row>
     <row r="23">
@@ -1891,10 +1960,10 @@
       <c r="I23" s="10"/>
       <c r="J23" s="30"/>
       <c r="K23" s="21" t="str">
-        <v>Mariel Grimaldi</v>
-      </c>
-    </row>
-    <row r="24" ht="14.1" customHeight="1">
+        <v>Carlos Cernigoi</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
@@ -1906,10 +1975,10 @@
       <c r="I24" s="10"/>
       <c r="J24" s="30"/>
       <c r="K24" s="21" t="str">
-        <v>Matías Strappazzon</v>
-      </c>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
+        <v>Marcia Garcia</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -1921,10 +1990,10 @@
       <c r="I25" s="10"/>
       <c r="J25" s="30"/>
       <c r="K25" s="21" t="str">
-        <v>Luciano Carreras</v>
-      </c>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
+        <v>Mariel Grimaldi</v>
+      </c>
+    </row>
+    <row r="26" ht="14.1" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -1934,12 +2003,12 @@
       <c r="G26" s="22"/>
       <c r="H26" s="44"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="30"/>
       <c r="K26" s="21" t="str">
-        <v>Barbara Jorquera</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>Matías Strappazzon</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1949,12 +2018,12 @@
       <c r="G27" s="22"/>
       <c r="H27" s="44"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="1"/>
+      <c r="J27" s="30"/>
       <c r="K27" s="21" t="str">
-        <v>Pablo Jimenez</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>Luciano Carreras</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="19"/>
@@ -1962,11 +2031,11 @@
       <c r="E28" s="21"/>
       <c r="F28" s="29"/>
       <c r="G28" s="22"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="10"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="43" t="s">
-        <v>14</v>
+      <c r="K28" s="21" t="str">
+        <v>Barbara Jorquera</v>
       </c>
     </row>
     <row r="29">
@@ -1977,9 +2046,12 @@
       <c r="E29" s="21"/>
       <c r="F29" s="29"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="42"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="10"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="21" t="str">
+        <v>Pablo Jimenez</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="18"/>
@@ -1992,8 +2064,19 @@
       <c r="H30" s="42"/>
       <c r="I30" s="10"/>
       <c r="J30" s="1"/>
+      <c r="K30" s="43" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="42"/>
       <c r="I31" s="10"/>
       <c r="J31" s="1"/>
     </row>
@@ -2010,14 +2093,6 @@
       <c r="J32" s="1"/>
     </row>
     <row r="33">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="42"/>
       <c r="I33" s="10"/>
       <c r="J33" s="1"/>
     </row>
@@ -2094,6 +2169,7 @@
       <c r="J39" s="1"/>
     </row>
     <row r="40">
+      <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
       <c r="D40" s="20"/>
@@ -2102,9 +2178,10 @@
       <c r="G40" s="22"/>
       <c r="H40" s="42"/>
       <c r="I40" s="10"/>
-      <c r="J40" s="30"/>
+      <c r="J40" s="1"/>
     </row>
     <row r="41">
+      <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
@@ -2113,7 +2190,7 @@
       <c r="G41" s="22"/>
       <c r="H41" s="42"/>
       <c r="I41" s="10"/>
-      <c r="J41" s="30"/>
+      <c r="J41" s="1"/>
     </row>
     <row r="42">
       <c r="B42" s="19"/>
@@ -2124,7 +2201,7 @@
       <c r="G42" s="22"/>
       <c r="H42" s="42"/>
       <c r="I42" s="10"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43">
       <c r="B43" s="19"/>
@@ -2135,7 +2212,7 @@
       <c r="G43" s="22"/>
       <c r="H43" s="42"/>
       <c r="I43" s="10"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44">
       <c r="B44" s="19"/>
@@ -2144,7 +2221,7 @@
       <c r="E44" s="21"/>
       <c r="F44" s="29"/>
       <c r="G44" s="22"/>
-      <c r="H44" s="5"/>
+      <c r="H44" s="42"/>
       <c r="I44" s="10"/>
       <c r="J44" s="1"/>
     </row>
@@ -2155,12 +2232,11 @@
       <c r="E45" s="21"/>
       <c r="F45" s="29"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="3"/>
+      <c r="H45" s="42"/>
       <c r="I45" s="10"/>
       <c r="J45" s="1"/>
     </row>
     <row r="46">
-      <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="19"/>
       <c r="D46" s="20"/>
@@ -2172,14 +2248,13 @@
       <c r="J46" s="1"/>
     </row>
     <row r="47">
-      <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="19"/>
       <c r="D47" s="20"/>
       <c r="E47" s="21"/>
       <c r="F47" s="29"/>
       <c r="G47" s="22"/>
-      <c r="H47" s="5"/>
+      <c r="H47" s="3"/>
       <c r="I47" s="10"/>
       <c r="J47" s="1"/>
     </row>
@@ -2191,7 +2266,7 @@
       <c r="E48" s="21"/>
       <c r="F48" s="29"/>
       <c r="G48" s="22"/>
-      <c r="H48" s="3"/>
+      <c r="H48" s="5"/>
       <c r="I48" s="10"/>
       <c r="J48" s="1"/>
     </row>
@@ -2215,7 +2290,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="29"/>
       <c r="G50" s="22"/>
-      <c r="H50" s="5"/>
+      <c r="H50" s="3"/>
       <c r="I50" s="10"/>
       <c r="J50" s="1"/>
     </row>
@@ -2227,7 +2302,7 @@
       <c r="E51" s="21"/>
       <c r="F51" s="29"/>
       <c r="G51" s="22"/>
-      <c r="H51" s="3"/>
+      <c r="H51" s="5"/>
       <c r="I51" s="10"/>
       <c r="J51" s="1"/>
     </row>
@@ -2251,9 +2326,9 @@
       <c r="E53" s="21"/>
       <c r="F53" s="29"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="5"/>
+      <c r="H53" s="3"/>
       <c r="I53" s="10"/>
-      <c r="J53" s="30"/>
+      <c r="J53" s="1"/>
     </row>
     <row r="54">
       <c r="A54" s="18"/>
@@ -2265,7 +2340,7 @@
       <c r="G54" s="22"/>
       <c r="H54" s="5"/>
       <c r="I54" s="10"/>
-      <c r="J54" s="30"/>
+      <c r="J54" s="1"/>
     </row>
     <row r="55">
       <c r="A55" s="18"/>
@@ -2275,9 +2350,9 @@
       <c r="E55" s="21"/>
       <c r="F55" s="29"/>
       <c r="G55" s="22"/>
-      <c r="H55" s="3"/>
+      <c r="H55" s="5"/>
       <c r="I55" s="10"/>
-      <c r="J55" s="1"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56">
       <c r="A56" s="18"/>
@@ -2289,7 +2364,7 @@
       <c r="G56" s="22"/>
       <c r="H56" s="5"/>
       <c r="I56" s="10"/>
-      <c r="J56" s="1"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57">
       <c r="A57" s="18"/>
@@ -2299,7 +2374,7 @@
       <c r="E57" s="21"/>
       <c r="F57" s="29"/>
       <c r="G57" s="22"/>
-      <c r="H57" s="5"/>
+      <c r="H57" s="3"/>
       <c r="I57" s="10"/>
       <c r="J57" s="1"/>
     </row>
@@ -2323,7 +2398,7 @@
       <c r="E59" s="21"/>
       <c r="F59" s="29"/>
       <c r="G59" s="22"/>
-      <c r="H59" s="3"/>
+      <c r="H59" s="5"/>
       <c r="I59" s="10"/>
       <c r="J59" s="1"/>
     </row>
@@ -2347,7 +2422,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="29"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="5"/>
+      <c r="H61" s="3"/>
       <c r="I61" s="10"/>
       <c r="J61" s="1"/>
     </row>
@@ -2359,7 +2434,7 @@
       <c r="E62" s="21"/>
       <c r="F62" s="29"/>
       <c r="G62" s="22"/>
-      <c r="H62" s="3"/>
+      <c r="H62" s="5"/>
       <c r="I62" s="10"/>
       <c r="J62" s="1"/>
     </row>
@@ -2383,7 +2458,7 @@
       <c r="E64" s="21"/>
       <c r="F64" s="29"/>
       <c r="G64" s="22"/>
-      <c r="H64" s="5"/>
+      <c r="H64" s="3"/>
       <c r="I64" s="10"/>
       <c r="J64" s="1"/>
     </row>
@@ -2419,7 +2494,7 @@
       <c r="E67" s="21"/>
       <c r="F67" s="29"/>
       <c r="G67" s="22"/>
-      <c r="H67" s="3"/>
+      <c r="H67" s="5"/>
       <c r="I67" s="10"/>
       <c r="J67" s="1"/>
     </row>
@@ -2443,7 +2518,7 @@
       <c r="E69" s="21"/>
       <c r="F69" s="29"/>
       <c r="G69" s="22"/>
-      <c r="H69" s="5"/>
+      <c r="H69" s="3"/>
       <c r="I69" s="10"/>
       <c r="J69" s="1"/>
     </row>
@@ -2455,7 +2530,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="29"/>
       <c r="G70" s="22"/>
-      <c r="H70" s="3"/>
+      <c r="H70" s="5"/>
       <c r="I70" s="10"/>
       <c r="J70" s="1"/>
     </row>
@@ -2479,7 +2554,7 @@
       <c r="E72" s="21"/>
       <c r="F72" s="29"/>
       <c r="G72" s="22"/>
-      <c r="H72" s="5"/>
+      <c r="H72" s="3"/>
       <c r="I72" s="10"/>
       <c r="J72" s="1"/>
     </row>
@@ -2491,7 +2566,7 @@
       <c r="E73" s="21"/>
       <c r="F73" s="29"/>
       <c r="G73" s="22"/>
-      <c r="H73" s="3"/>
+      <c r="H73" s="5"/>
       <c r="I73" s="10"/>
       <c r="J73" s="1"/>
     </row>
@@ -2515,7 +2590,7 @@
       <c r="E75" s="21"/>
       <c r="F75" s="29"/>
       <c r="G75" s="22"/>
-      <c r="H75" s="5"/>
+      <c r="H75" s="3"/>
       <c r="I75" s="10"/>
       <c r="J75" s="1"/>
     </row>
@@ -2527,7 +2602,7 @@
       <c r="E76" s="21"/>
       <c r="F76" s="29"/>
       <c r="G76" s="22"/>
-      <c r="H76" s="3"/>
+      <c r="H76" s="5"/>
       <c r="I76" s="10"/>
       <c r="J76" s="1"/>
     </row>
@@ -2551,7 +2626,7 @@
       <c r="E78" s="21"/>
       <c r="F78" s="29"/>
       <c r="G78" s="22"/>
-      <c r="H78" s="5"/>
+      <c r="H78" s="3"/>
       <c r="I78" s="10"/>
       <c r="J78" s="1"/>
     </row>
@@ -2575,7 +2650,7 @@
       <c r="E80" s="21"/>
       <c r="F80" s="29"/>
       <c r="G80" s="22"/>
-      <c r="H80" s="3"/>
+      <c r="H80" s="5"/>
       <c r="I80" s="10"/>
       <c r="J80" s="1"/>
     </row>
@@ -2587,7 +2662,7 @@
       <c r="E81" s="21"/>
       <c r="F81" s="29"/>
       <c r="G81" s="22"/>
-      <c r="H81" s="3"/>
+      <c r="H81" s="5"/>
       <c r="I81" s="10"/>
       <c r="J81" s="1"/>
     </row>
@@ -2599,7 +2674,7 @@
       <c r="E82" s="21"/>
       <c r="F82" s="29"/>
       <c r="G82" s="22"/>
-      <c r="H82" s="5"/>
+      <c r="H82" s="3"/>
       <c r="I82" s="10"/>
       <c r="J82" s="1"/>
     </row>
@@ -2611,7 +2686,7 @@
       <c r="E83" s="21"/>
       <c r="F83" s="29"/>
       <c r="G83" s="22"/>
-      <c r="H83" s="5"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="10"/>
       <c r="J83" s="1"/>
     </row>
@@ -2695,7 +2770,7 @@
       <c r="E90" s="21"/>
       <c r="F90" s="29"/>
       <c r="G90" s="22"/>
-      <c r="H90" s="3"/>
+      <c r="H90" s="5"/>
       <c r="I90" s="10"/>
       <c r="J90" s="1"/>
     </row>
@@ -2719,7 +2794,7 @@
       <c r="E92" s="21"/>
       <c r="F92" s="29"/>
       <c r="G92" s="22"/>
-      <c r="H92" s="5"/>
+      <c r="H92" s="3"/>
       <c r="I92" s="10"/>
       <c r="J92" s="1"/>
     </row>
@@ -2743,7 +2818,7 @@
       <c r="E94" s="21"/>
       <c r="F94" s="29"/>
       <c r="G94" s="22"/>
-      <c r="H94" s="3"/>
+      <c r="H94" s="5"/>
       <c r="I94" s="10"/>
       <c r="J94" s="1"/>
     </row>
@@ -2791,7 +2866,7 @@
       <c r="E98" s="21"/>
       <c r="F98" s="29"/>
       <c r="G98" s="22"/>
-      <c r="H98" s="5"/>
+      <c r="H98" s="3"/>
       <c r="I98" s="10"/>
       <c r="J98" s="1"/>
     </row>
@@ -2827,7 +2902,7 @@
       <c r="E101" s="21"/>
       <c r="F101" s="29"/>
       <c r="G101" s="22"/>
-      <c r="H101" s="3"/>
+      <c r="H101" s="5"/>
       <c r="I101" s="10"/>
       <c r="J101" s="1"/>
     </row>
@@ -2839,7 +2914,7 @@
       <c r="E102" s="21"/>
       <c r="F102" s="29"/>
       <c r="G102" s="22"/>
-      <c r="H102" s="3"/>
+      <c r="H102" s="5"/>
       <c r="I102" s="10"/>
       <c r="J102" s="1"/>
     </row>
@@ -2851,7 +2926,7 @@
       <c r="E103" s="21"/>
       <c r="F103" s="29"/>
       <c r="G103" s="22"/>
-      <c r="H103" s="5"/>
+      <c r="H103" s="3"/>
       <c r="I103" s="10"/>
       <c r="J103" s="1"/>
     </row>
@@ -2863,7 +2938,7 @@
       <c r="E104" s="21"/>
       <c r="F104" s="29"/>
       <c r="G104" s="22"/>
-      <c r="H104" s="5"/>
+      <c r="H104" s="3"/>
       <c r="I104" s="10"/>
       <c r="J104" s="1"/>
     </row>
@@ -2875,7 +2950,7 @@
       <c r="E105" s="21"/>
       <c r="F105" s="29"/>
       <c r="G105" s="22"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="5"/>
       <c r="I105" s="10"/>
       <c r="J105" s="1"/>
     </row>
@@ -2911,7 +2986,7 @@
       <c r="E108" s="21"/>
       <c r="F108" s="29"/>
       <c r="G108" s="22"/>
-      <c r="H108" s="3"/>
+      <c r="H108" s="5"/>
       <c r="I108" s="10"/>
       <c r="J108" s="1"/>
     </row>
@@ -2947,7 +3022,7 @@
       <c r="E111" s="21"/>
       <c r="F111" s="29"/>
       <c r="G111" s="22"/>
-      <c r="H111" s="5"/>
+      <c r="H111" s="3"/>
       <c r="I111" s="10"/>
       <c r="J111" s="1"/>
     </row>
@@ -2969,105 +3044,107 @@
       <c r="C113" s="19"/>
       <c r="D113" s="20"/>
       <c r="E113" s="21"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="39"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="10"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" ht="13.5">
+    <row r="114">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="19"/>
       <c r="D114" s="20"/>
       <c r="E114" s="21"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="11"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="10"/>
       <c r="J114" s="1"/>
     </row>
     <row r="115">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
       <c r="D115" s="20"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="6"/>
-      <c r="J115" s="40"/>
-    </row>
-    <row r="116" ht="12.75" customHeight="1">
+      <c r="E115" s="21"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" ht="13.5">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
       <c r="D116" s="20"/>
-      <c r="I116" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J116" s="2"/>
-    </row>
-    <row r="117" hidden="1">
+      <c r="E116" s="21"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="D117" s="20"/>
-      <c r="I117" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J117" s="23"/>
-      <c r="K117" s="6"/>
-    </row>
-    <row r="118" hidden="1">
+      <c r="H117" s="8"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="40"/>
+    </row>
+    <row r="118" ht="12.75" customHeight="1">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
       <c r="D118" s="20"/>
-      <c r="I118" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J118" s="23" t="s">
+      <c r="I118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K118" s="6"/>
+      <c r="J118" s="2"/>
     </row>
     <row r="119" hidden="1">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="D119" s="20"/>
       <c r="I119" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="J119" s="6" t="s">
-        <v>15</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="J119" s="23"/>
+      <c r="K119" s="6"/>
     </row>
     <row r="120" hidden="1">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="D120" s="20"/>
       <c r="I120" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J120" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J120" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K120" s="6"/>
     </row>
     <row r="121" hidden="1">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="D121" s="20"/>
       <c r="I121" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" hidden="1">
-      <c r="A122" s="24"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="D122" s="20"/>
       <c r="I122" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="123" hidden="1">
@@ -3075,21 +3152,21 @@
       <c r="B123" s="19"/>
       <c r="D123" s="20"/>
       <c r="I123" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J123" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" hidden="1">
-      <c r="A124" s="18"/>
+      <c r="A124" s="24"/>
       <c r="B124" s="19"/>
       <c r="D124" s="20"/>
       <c r="I124" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J124" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="125" hidden="1">
@@ -3097,527 +3174,528 @@
       <c r="B125" s="19"/>
       <c r="D125" s="20"/>
       <c r="I125" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" hidden="1">
-      <c r="A126" s="24"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="D126" s="20"/>
       <c r="I126" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" hidden="1" ht="13.5">
-      <c r="A127" s="41"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" hidden="1">
+      <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="D127" s="20"/>
       <c r="I127" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" hidden="1">
+      <c r="A128" s="24"/>
       <c r="B128" s="19"/>
       <c r="D128" s="20"/>
+      <c r="I128" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="J128" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" hidden="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" hidden="1" ht="13.5">
+      <c r="A129" s="41"/>
       <c r="B129" s="19"/>
       <c r="D129" s="20"/>
       <c r="I129" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130" hidden="1">
       <c r="B130" s="19"/>
       <c r="D130" s="20"/>
-      <c r="I130" s="12">
-        <v>1</v>
+      <c r="J130" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="131" hidden="1">
       <c r="B131" s="19"/>
       <c r="D131" s="20"/>
-      <c r="I131" s="12">
-        <v>2</v>
+      <c r="I131" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="J131" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" hidden="1">
       <c r="B132" s="19"/>
-      <c r="D132" s="35"/>
+      <c r="D132" s="20"/>
       <c r="I132" s="12">
-        <v>3</v>
-      </c>
-      <c r="J132" s="28">
         <v>1</v>
       </c>
     </row>
-    <row r="133" hidden="1" ht="13.5">
+    <row r="133" hidden="1">
       <c r="B133" s="19"/>
-      <c r="D133" s="25"/>
+      <c r="D133" s="20"/>
       <c r="I133" s="12">
-        <v>4</v>
-      </c>
-      <c r="J133" s="28">
         <v>2</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="134" hidden="1">
       <c r="B134" s="19"/>
+      <c r="D134" s="35"/>
       <c r="I134" s="12">
+        <v>3</v>
+      </c>
+      <c r="J134" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" ht="13.5">
+      <c r="B135" s="19"/>
+      <c r="D135" s="25"/>
+      <c r="I135" s="12">
+        <v>4</v>
+      </c>
+      <c r="J135" s="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" hidden="1">
+      <c r="B136" s="19"/>
+      <c r="I136" s="12">
         <v>5</v>
       </c>
-      <c r="J134" s="28">
+      <c r="J136" s="28">
         <v>3</v>
-      </c>
-    </row>
-    <row r="135" hidden="1">
-      <c r="I135" s="12">
-        <v>6</v>
-      </c>
-      <c r="J135" s="28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" hidden="1">
-      <c r="I136" s="12">
-        <v>7</v>
-      </c>
-      <c r="J136" s="28">
-        <v>5</v>
       </c>
     </row>
     <row r="137" hidden="1">
       <c r="I137" s="12">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J137" s="28">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" hidden="1">
       <c r="I138" s="12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J138" s="28">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" hidden="1">
       <c r="I139" s="12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J139" s="28">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" hidden="1">
       <c r="I140" s="12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J140" s="28">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" hidden="1">
       <c r="I141" s="12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J141" s="28">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" hidden="1">
       <c r="I142" s="12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J142" s="28">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" hidden="1">
       <c r="I143" s="12">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J143" s="28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" hidden="1">
       <c r="I144" s="12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J144" s="28">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" hidden="1">
       <c r="I145" s="12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J145" s="28">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" hidden="1">
       <c r="I146" s="12">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J146" s="28">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" hidden="1">
       <c r="I147" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J147" s="28">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" hidden="1">
       <c r="I148" s="12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J148" s="28">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" hidden="1">
       <c r="I149" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J149" s="28">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="150" hidden="1">
       <c r="I150" s="12">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J150" s="28">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="151" hidden="1">
       <c r="I151" s="12">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J151" s="28">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" hidden="1">
       <c r="I152" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J152" s="28">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="153" hidden="1">
       <c r="I153" s="12">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J153" s="28">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154" hidden="1">
       <c r="I154" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J154" s="28">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="155" hidden="1">
       <c r="I155" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J155" s="28">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" hidden="1">
       <c r="I156" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J156" s="28">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="157" hidden="1">
       <c r="I157" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J157" s="28">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" hidden="1">
       <c r="I158" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J158" s="28">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="159" hidden="1">
       <c r="I159" s="12">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J159" s="28">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" hidden="1">
       <c r="I160" s="12">
+        <v>29</v>
+      </c>
+      <c r="J160" s="28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="161" hidden="1">
+      <c r="I161" s="12">
+        <v>30</v>
+      </c>
+      <c r="J161" s="28">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" hidden="1">
+      <c r="I162" s="12">
         <v>31</v>
       </c>
-      <c r="J160" s="28">
+      <c r="J162" s="28">
         <v>29</v>
       </c>
     </row>
-    <row r="161" hidden="1">
-      <c r="J161" s="28">
+    <row r="163" hidden="1">
+      <c r="J163" s="28">
         <v>30</v>
       </c>
     </row>
-    <row r="162" hidden="1">
-      <c r="I162" s="8" t="s">
+    <row r="164" hidden="1">
+      <c r="I164" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J162" s="28">
+      <c r="J164" s="28">
         <v>31</v>
-      </c>
-    </row>
-    <row r="163" hidden="1">
-      <c r="I163" s="6">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="164" hidden="1">
-      <c r="I164" s="6">
-        <v>2018</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="165" hidden="1">
       <c r="I165" s="6">
-        <v>2019</v>
-      </c>
-      <c r="J165" s="6">
         <v>2017</v>
       </c>
     </row>
     <row r="166" hidden="1">
       <c r="I166" s="6">
+        <v>2018</v>
+      </c>
+      <c r="J166" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" hidden="1">
+      <c r="I167" s="6">
+        <v>2019</v>
+      </c>
+      <c r="J167" s="6">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="168" hidden="1">
+      <c r="I168" s="6">
         <v>2020</v>
       </c>
-      <c r="J166" s="6">
+      <c r="J168" s="6">
         <v>2018</v>
-      </c>
-    </row>
-    <row r="167" hidden="1">
-      <c r="I167" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J167" s="6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="168" hidden="1">
-      <c r="I168" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J168" s="6">
-        <v>2020</v>
       </c>
     </row>
     <row r="169" hidden="1">
       <c r="I169" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J169" s="23" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+      <c r="J169" s="6">
+        <v>2019</v>
       </c>
     </row>
     <row r="170" hidden="1">
       <c r="I170" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="J170" s="23" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="J170" s="6">
+        <v>2020</v>
       </c>
     </row>
     <row r="171" hidden="1">
-      <c r="I171" s="8" t="s">
-        <v>31</v>
+      <c r="I171" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="J171" s="23" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="172" hidden="1">
-      <c r="I172" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J172" s="6" t="s">
+      <c r="I172" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J172" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="173" hidden="1">
       <c r="I173" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J173" s="6" t="s">
         <v>36</v>
+      </c>
+      <c r="J173" s="23" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="174" hidden="1">
       <c r="I174" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J174" s="23" t="s">
         <v>38</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="175" hidden="1">
       <c r="I175" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J175" s="23" t="s">
         <v>40</v>
+      </c>
+      <c r="J175" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="176" hidden="1">
       <c r="I176" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J176" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="177" hidden="1">
       <c r="I177" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J177" s="32" t="s">
         <v>44</v>
+      </c>
+      <c r="J177" s="23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="178" hidden="1">
       <c r="I178" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J178" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="179" hidden="1">
       <c r="I179" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="J179" s="6" t="s">
         <v>48</v>
+      </c>
+      <c r="J179" s="32" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="180" hidden="1">
       <c r="I180" s="8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J180" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="181" hidden="1">
       <c r="I181" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J181" s="33" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="182" hidden="1" ht="25.5">
-      <c r="I182" s="14" t="s">
+      <c r="J181" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="J182" s="33" t="s">
+    </row>
+    <row r="182" hidden="1">
+      <c r="I182" s="8" t="s">
         <v>54</v>
       </c>
+      <c r="J182" s="23" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="183" hidden="1">
+      <c r="I183" s="8" t="s">
+        <v>56</v>
+      </c>
       <c r="J183" s="33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="184" hidden="1">
-      <c r="J184" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="184" hidden="1" ht="25.5">
+      <c r="I184" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="J184" s="33" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="185" hidden="1">
-      <c r="J185" s="6" t="s">
-        <v>57</v>
+      <c r="J185" s="33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="186" hidden="1">
       <c r="J186" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="H550" s="46"/>
-    </row>
-    <row r="551">
-      <c r="C551" s="46"/>
-      <c r="D551" s="49"/>
-      <c r="E551" s="46"/>
-      <c r="F551" s="46"/>
-      <c r="G551" s="51"/>
-      <c r="H551" s="50"/>
-      <c r="I551" s="46"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="187" hidden="1">
+      <c r="J187" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="188" hidden="1">
+      <c r="J188" s="6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="552">
-      <c r="B552" s="49"/>
-      <c r="C552" s="56"/>
-      <c r="D552" s="49"/>
-      <c r="E552" s="55"/>
-      <c r="F552" s="50"/>
-      <c r="G552" s="51"/>
-      <c r="H552" s="50"/>
-      <c r="I552" s="48"/>
+      <c r="H552" s="46"/>
     </row>
     <row r="553">
-      <c r="B553" s="49"/>
-      <c r="C553" s="56"/>
+      <c r="C553" s="46"/>
       <c r="D553" s="49"/>
-      <c r="E553" s="55"/>
-      <c r="F553" s="50"/>
-      <c r="G553" s="54"/>
-      <c r="H553" s="52"/>
-      <c r="I553" s="48"/>
-      <c r="J553" s="46"/>
+      <c r="E553" s="46"/>
+      <c r="F553" s="46"/>
+      <c r="G553" s="51"/>
+      <c r="H553" s="50"/>
+      <c r="I553" s="46"/>
     </row>
     <row r="554">
       <c r="B554" s="49"/>
@@ -3625,10 +3703,9 @@
       <c r="D554" s="49"/>
       <c r="E554" s="55"/>
       <c r="F554" s="50"/>
-      <c r="G554" s="54"/>
+      <c r="G554" s="51"/>
       <c r="H554" s="50"/>
       <c r="I554" s="48"/>
-      <c r="J554" s="50"/>
     </row>
     <row r="555">
       <c r="B555" s="49"/>
@@ -3637,9 +3714,9 @@
       <c r="E555" s="55"/>
       <c r="F555" s="50"/>
       <c r="G555" s="54"/>
-      <c r="H555" s="50"/>
+      <c r="H555" s="52"/>
       <c r="I555" s="48"/>
-      <c r="J555" s="45"/>
+      <c r="J555" s="46"/>
     </row>
     <row r="556">
       <c r="B556" s="49"/>
@@ -3651,7 +3728,6 @@
       <c r="H556" s="50"/>
       <c r="I556" s="48"/>
       <c r="J556" s="50"/>
-      <c r="L556" s="47"/>
     </row>
     <row r="557">
       <c r="B557" s="49"/>
@@ -3660,28 +3736,45 @@
       <c r="E557" s="55"/>
       <c r="F557" s="50"/>
       <c r="G557" s="54"/>
-      <c r="H557" s="53"/>
+      <c r="H557" s="50"/>
       <c r="I557" s="48"/>
-      <c r="J557" s="50"/>
-      <c r="L557" s="47"/>
+      <c r="J557" s="45"/>
     </row>
     <row r="558">
+      <c r="B558" s="49"/>
+      <c r="C558" s="56"/>
+      <c r="D558" s="49"/>
+      <c r="E558" s="55"/>
+      <c r="F558" s="50"/>
+      <c r="G558" s="54"/>
+      <c r="H558" s="50"/>
+      <c r="I558" s="48"/>
       <c r="J558" s="50"/>
       <c r="L558" s="47"/>
     </row>
     <row r="559">
-      <c r="I559" s="49"/>
-      <c r="J559" s="45"/>
+      <c r="B559" s="49"/>
+      <c r="C559" s="56"/>
+      <c r="D559" s="49"/>
+      <c r="E559" s="55"/>
+      <c r="F559" s="50"/>
+      <c r="G559" s="54"/>
+      <c r="H559" s="53"/>
+      <c r="I559" s="48"/>
+      <c r="J559" s="50"/>
       <c r="L559" s="47"/>
     </row>
-    <row r="563">
-      <c r="A563" s="46"/>
-    </row>
-    <row r="564">
-      <c r="A564" s="57"/>
+    <row r="560">
+      <c r="J560" s="50"/>
+      <c r="L560" s="47"/>
+    </row>
+    <row r="561">
+      <c r="I561" s="49"/>
+      <c r="J561" s="45"/>
+      <c r="L561" s="47"/>
     </row>
     <row r="565">
-      <c r="A565" s="57"/>
+      <c r="A565" s="46"/>
     </row>
     <row r="566">
       <c r="A566" s="57"/>
@@ -3696,22 +3789,16 @@
       <c r="A569" s="57"/>
     </row>
     <row r="570">
-      <c r="D570" s="46"/>
+      <c r="A570" s="57"/>
     </row>
     <row r="571">
-      <c r="B571" s="46"/>
-      <c r="C571" s="49"/>
-      <c r="D571" s="58"/>
+      <c r="A571" s="57"/>
     </row>
     <row r="572">
-      <c r="A572" s="49"/>
-      <c r="B572" s="56"/>
-      <c r="C572" s="49"/>
-      <c r="D572" s="58"/>
+      <c r="D572" s="46"/>
     </row>
     <row r="573">
-      <c r="A573" s="49"/>
-      <c r="B573" s="56"/>
+      <c r="B573" s="46"/>
       <c r="C573" s="49"/>
       <c r="D573" s="58"/>
     </row>
@@ -3736,55 +3823,67 @@
     <row r="577">
       <c r="A577" s="49"/>
       <c r="B577" s="56"/>
+      <c r="C577" s="49"/>
+      <c r="D577" s="58"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="49"/>
+      <c r="B578" s="56"/>
+      <c r="C578" s="49"/>
+      <c r="D578" s="58"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="49"/>
+      <c r="B579" s="56"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="15">
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Se puede Ingresar hasta 255 Cara" sqref="H70 H76 H73 H48 H45 H107:H110 H112:H113 H62 H55 H59 H101:H102 H80:H81 H67 H90 H96 H94 H51 H105 H555 H551:H552 H32:H43 H8:H30" xr:uid="{371DC58C-FEB2-4E45-BB93-62C42C4A3949}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Se puede Ingresar hasta 255 Cara" sqref="H72 H78 H75 H50 H47 H109:H112 H114:H115 H64 H57 H61 H103:H104 H82:H83 H69 H92 H98 H96 H53 H107 H557 H553:H554 H34:H45 H10:H32" xr:uid="{371DC58C-FEB2-4E45-BB93-62C42C4A3949}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="H554 H556" xr:uid="{0F62A9B4-6DFC-4C5C-BA89-44CC6DBA0224}">
+    <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" sqref="H556 H558" xr:uid="{0F62A9B4-6DFC-4C5C-BA89-44CC6DBA0224}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Observaciones" error="Usted se ha Excedido en la longitud del texto permitido" promptTitle="Observaciones" prompt="Ingrese las Observaciones" sqref="J554:J559 J8:J116" xr:uid="{EB3247A3-950F-4B1F-9471-1CF271AEBED8}">
+    <dataValidation type="textLength" allowBlank="1" showErrorMessage="1" errorTitle="Observaciones" error="Usted se ha Excedido en la longitud del texto permitido" promptTitle="Observaciones" prompt="Ingrese las Observaciones" sqref="J556:J561 J10:J118" xr:uid="{EB3247A3-950F-4B1F-9471-1CF271AEBED8}">
       <formula1>0</formula1>
       <formula2>255</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A564:A569 A46:A126 A8:A30 A32:A39" xr:uid="{BA315284-2B46-469D-883D-7876FDDFD4AA}">
-      <formula1>$J$132:$J$162</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A566:A571 A48:A128 A10:A32 A34:A41" xr:uid="{BA315284-2B46-469D-883D-7876FDDFD4AA}">
+      <formula1>$J$134:$J$164</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Mes" error="Mes Invalido" sqref="B572:B577" xr:uid="{E3A95B67-A2EC-4514-857C-14C90741485F}">
-      <formula1>$J$118:$J$129</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Mes" error="Mes Invalido" sqref="B574:B579" xr:uid="{E3A95B67-A2EC-4514-857C-14C90741485F}">
+      <formula1>$J$120:$J$131</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Año" error="Año Invalido" sqref="C552:C557" xr:uid="{60CD267E-6D24-4FB9-8B1F-B36136150D34}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Año" error="Año Invalido" sqref="C554:C559" xr:uid="{60CD267E-6D24-4FB9-8B1F-B36136150D34}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulo" error="Usted Ingreso un Modulo no Habilitado" promptTitle="Modulo" prompt="Ingrese Modulo" sqref="I552:I557 I8:I114" xr:uid="{69BD4DA5-AB89-41F7-B012-FD13EDD1F3DC}">
-      <formula1>$I$172:$I$182</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Modulo" error="Usted Ingreso un Modulo no Habilitado" promptTitle="Modulo" prompt="Ingrese Modulo" sqref="I554:I559 I10:I116" xr:uid="{69BD4DA5-AB89-41F7-B012-FD13EDD1F3DC}">
+      <formula1>$I$174:$I$184</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC  ó UN" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN" sqref="F552:F557" xr:uid="{BE9CE703-8FF7-4269-B49C-23685C409C17}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC  ó UN" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN" sqref="F554:F559" xr:uid="{BE9CE703-8FF7-4269-B49C-23685C409C17}">
       <formula1>"SJ,SC,NB,UN"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G552:G557" xr:uid="{25069724-3FCD-49BF-8C57-8B0B1ACA693B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G554:G559" xr:uid="{25069724-3FCD-49BF-8C57-8B0B1ACA693B}">
       <formula1>"MC-NORM,MC-APLIC,DE-NORM,DE-APLIC,SO-NORM,SO-APLIC,OT-OT"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Dia Invalido" sqref="A1" xr:uid="{3421402B-8F8B-4548-966A-0606DA6EDB2B}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E552:E557" xr:uid="{F659DD71-1F0E-44B3-BC7F-FF66796AE9F7}">
-      <formula1>$J$170:$J$173</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E554:E559" xr:uid="{F659DD71-1F0E-44B3-BC7F-FF66796AE9F7}">
+      <formula1>$J$172:$J$175</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="K11:K27" xr:uid="{DBBB973F-B397-4BB4-9A1E-65E58CFBABDA}">
-      <formula1>$J$170:$J$186</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="K13:K29" xr:uid="{DBBB973F-B397-4BB4-9A1E-65E58CFBABDA}">
+      <formula1>$J$172:$J$188</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G32:G114 G8:G30" xr:uid="{AF9CB262-9414-490D-BA66-E84146D7598E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tipo de Tarea" error="El dato a Ingresar debe ser:MC-D; MC-S;DE-D;DE-S" promptTitle="Tipo de Tarea" sqref="G34:G116 G10:G32" xr:uid="{AF9CB262-9414-490D-BA66-E84146D7598E}">
       <formula1>"MC-NORM,MC-APLIC,DE-NORM,DE-APLIC,ASIST-PROD,ASIST-TEST,ASIST-REQ,ASIST-TEC,OT-OT"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC, NB, UN  ó MI" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN, MI" sqref="F32:F114 F8:F30" xr:uid="{2962D86E-B251-46F9-B5B2-BD15D2905674}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Banco" error="Opcion Invalida: Ingrese SJ, SC, NB, UN  ó MI" promptTitle="Banco" prompt="Ingrese SJ, SC,NB, UN, MI" sqref="F34:F116 F10:F32" xr:uid="{2962D86E-B251-46F9-B5B2-BD15D2905674}">
       <formula1>"SJ,SC,NB,UN,MI"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E32:E114 E8:E30" xr:uid="{CE9DAE9A-4129-4597-A367-95AC8120CD3D}">
-      <formula1>$K$11:$K$28</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Recurso" error="Usted Ingreso un recurso no Habilitado" promptTitle="Recurso" prompt="Ingrese Nombre y Apellido" sqref="E34:E116 E10:E32" xr:uid="{CE9DAE9A-4129-4597-A367-95AC8120CD3D}">
+      <formula1>$K$13:$K$30</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
